--- a/teaching/traditional_assets/database/data/denmark/denmark_software_internet.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_software_internet.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.5227190112686296</v>
+        <v>-0.6886020151133502</v>
       </c>
       <c r="H2">
-        <v>-0.808069792802617</v>
+        <v>-1.031801007556675</v>
       </c>
       <c r="I2">
-        <v>-1.101417666303163</v>
+        <v>-0.8167506297229219</v>
       </c>
       <c r="J2">
-        <v>-1.101417666303163</v>
+        <v>-0.8167506297229219</v>
       </c>
       <c r="K2">
-        <v>-5.822</v>
+        <v>-1.961</v>
       </c>
       <c r="L2">
-        <v>-2.116321337695383</v>
+        <v>-0.6174433249370278</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.300000000000001</v>
+        <v>3.08</v>
       </c>
       <c r="V2">
-        <v>0.3284671532846716</v>
+        <v>0.1632220455749867</v>
       </c>
       <c r="W2">
-        <v>-0.926193193764455</v>
+        <v>-1.172989686568367</v>
       </c>
       <c r="X2">
-        <v>0.08468325323447926</v>
+        <v>0.05327491537410382</v>
       </c>
       <c r="Y2">
-        <v>-1.010876446998934</v>
+        <v>-1.226264601942471</v>
       </c>
       <c r="Z2">
-        <v>0.7762415349887134</v>
+        <v>-1.962917181705808</v>
       </c>
       <c r="AA2">
-        <v>-1.010354738986135</v>
+        <v>-0.1229312279804526</v>
       </c>
       <c r="AB2">
-        <v>0.08274949198265526</v>
+        <v>0.05327012544756154</v>
       </c>
       <c r="AC2">
-        <v>-1.09310423096879</v>
+        <v>-0.1762013534280142</v>
       </c>
       <c r="AD2">
-        <v>0.311</v>
+        <v>0.005</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.311</v>
+        <v>0.005</v>
       </c>
       <c r="AG2">
-        <v>-5.989000000000001</v>
+        <v>-3.075</v>
       </c>
       <c r="AH2">
-        <v>0.01595608229439228</v>
+        <v>0.0002649006622516556</v>
       </c>
       <c r="AI2">
-        <v>0.0664246048697138</v>
+        <v>0.0008554319931565441</v>
       </c>
       <c r="AJ2">
-        <v>-0.4540216814494732</v>
+        <v>-0.194681861348528</v>
       </c>
       <c r="AK2">
-        <v>3.701483312731765</v>
+        <v>-1.112115732368897</v>
       </c>
       <c r="AL2">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.215</v>
+        <v>-0.251</v>
       </c>
       <c r="AN2">
-        <v>-0.1032193826750747</v>
-      </c>
-      <c r="AO2">
-        <v>-12.46913580246914</v>
+        <v>-0.001955416503715291</v>
       </c>
       <c r="AP2">
-        <v>1.987719880517757</v>
+        <v>1.202581149784904</v>
       </c>
       <c r="AQ2">
-        <v>-14.09302325581396</v>
+        <v>10.33466135458167</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +713,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>190</v>
+        <v>-270.3333333333333</v>
       </c>
       <c r="H3">
-        <v>-125.4545454545455</v>
+        <v>-410</v>
       </c>
       <c r="I3">
-        <v>-198.1818181818182</v>
+        <v>-291.6666666666667</v>
       </c>
       <c r="J3">
-        <v>-198.1818181818182</v>
+        <v>-291.6666666666667</v>
       </c>
       <c r="K3">
-        <v>-5.16</v>
+        <v>-1.28</v>
       </c>
       <c r="L3">
-        <v>-469.0909090909091</v>
+        <v>-213.3333333333333</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +752,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.41</v>
+        <v>1.3</v>
       </c>
       <c r="V3">
-        <v>0.9266304347826086</v>
+        <v>0.8280254777070064</v>
       </c>
       <c r="W3">
-        <v>-0.8730964467005076</v>
+        <v>-2.165820642978003</v>
       </c>
       <c r="X3">
-        <v>0.08672374321048207</v>
+        <v>0.05326995922263075</v>
       </c>
       <c r="Y3">
-        <v>-0.9598201899109896</v>
+        <v>-2.219090602200634</v>
       </c>
       <c r="Z3">
-        <v>0.003832752613240418</v>
+        <v>-0.002386634844868735</v>
       </c>
       <c r="AA3">
-        <v>-0.759581881533101</v>
+        <v>0.696101829753381</v>
       </c>
       <c r="AB3">
-        <v>0.0828741041441842</v>
+        <v>0.05326995922263075</v>
       </c>
       <c r="AC3">
-        <v>-0.8424559856772852</v>
+        <v>0.6428318705307502</v>
       </c>
       <c r="AD3">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-3.105</v>
+        <v>-1.3</v>
       </c>
       <c r="AH3">
-        <v>0.07653701380175658</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.3404017857142858</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-5.399999999999999</v>
+        <v>-4.814814814814815</v>
       </c>
       <c r="AK3">
-        <v>1.23508353221957</v>
+        <v>-0.8783783783783785</v>
       </c>
       <c r="AL3">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.239</v>
+        <v>-0.205</v>
       </c>
       <c r="AN3">
-        <v>-0.1405529953917051</v>
-      </c>
-      <c r="AO3">
-        <v>-9.121338912133892</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>1.430875576036866</v>
+        <v>0.7471264367816092</v>
       </c>
       <c r="AQ3">
-        <v>-9.121338912133892</v>
+        <v>8.536585365853659</v>
       </c>
     </row>
     <row r="4">
@@ -841,22 +835,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.237956204379562</v>
+        <v>-0.1782334384858044</v>
       </c>
       <c r="H4">
-        <v>-0.3076642335766423</v>
+        <v>-0.2577287066246057</v>
       </c>
       <c r="I4">
-        <v>-0.3102189781021897</v>
+        <v>-0.2662460567823344</v>
       </c>
       <c r="J4">
-        <v>-0.3102189781021897</v>
+        <v>-0.2662460567823344</v>
       </c>
       <c r="K4">
-        <v>-0.662</v>
+        <v>-0.681</v>
       </c>
       <c r="L4">
-        <v>-0.2416058394160584</v>
+        <v>-0.214826498422713</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,73 +874,70 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.89</v>
+        <v>1.78</v>
       </c>
       <c r="V4">
-        <v>0.1864516129032258</v>
+        <v>0.1028901734104046</v>
       </c>
       <c r="W4">
-        <v>-0.9792899408284024</v>
+        <v>-0.1801587301587302</v>
       </c>
       <c r="X4">
-        <v>0.08264276325847643</v>
+        <v>0.05327987152557688</v>
       </c>
       <c r="Y4">
-        <v>-1.061932704086879</v>
+        <v>-0.2334386016843071</v>
       </c>
       <c r="Z4">
-        <v>4.065281899109793</v>
+        <v>3.537946428571431</v>
       </c>
       <c r="AA4">
-        <v>-1.261127596439169</v>
+        <v>-0.9419642857142863</v>
       </c>
       <c r="AB4">
-        <v>0.08262487982112632</v>
+        <v>0.05327029167249234</v>
       </c>
       <c r="AC4">
-        <v>-1.343752476260295</v>
+        <v>-0.9952345773867786</v>
       </c>
       <c r="AD4">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AG4">
-        <v>-2.884</v>
+        <v>-1.775</v>
       </c>
       <c r="AH4">
-        <v>0.000386946988262608</v>
+        <v>0.0002889338341519792</v>
       </c>
       <c r="AI4">
-        <v>0.001584786053882726</v>
+        <v>0.001631321370309951</v>
       </c>
       <c r="AJ4">
-        <v>-0.2285986049461002</v>
+        <v>-0.1143317230273752</v>
       </c>
       <c r="AK4">
-        <v>-3.218750000000002</v>
+        <v>-1.381322957198444</v>
       </c>
       <c r="AL4">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.024</v>
+        <v>-0.046</v>
       </c>
       <c r="AN4">
-        <v>-0.007117437722419929</v>
-      </c>
-      <c r="AO4">
-        <v>-212.5</v>
+        <v>-0.006119951040391677</v>
       </c>
       <c r="AP4">
-        <v>3.42111506524318</v>
+        <v>2.172582619339046</v>
       </c>
       <c r="AQ4">
-        <v>35.41666666666666</v>
+        <v>18.34782608695652</v>
       </c>
     </row>
   </sheetData>
